--- a/docs/uc_page_htmls/downloaded_excels/UC610-payment_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-payment_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,6 +993,897 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>505.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UC610-0759</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>06 Jan 2026, 01:05 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/uc_page_htmls/downloaded_excels/UC610-payment_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC610-payment_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UC610-0869</t>
+          <t>UC610-0890</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UPI / Wallet</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31 Jan 2026, 05:56 PM</t>
+          <t>03 Feb 2026, 12:12 PM</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UC610-0836</t>
+          <t>UC610-0867</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>413</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:44 AM</t>
+          <t>03 Feb 2026, 10:43 AM</t>
         </is>
       </c>
     </row>
@@ -515,22 +515,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UC610-0834</t>
+          <t>UC610-0869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>UPI / Wallet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>958</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:41 AM</t>
+          <t>31 Jan 2026, 05:56 PM</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UC610-0827</t>
+          <t>UC610-0868</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -552,12 +552,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30 Jan 2026, 11:26 AM</t>
+          <t>30 Jan 2026, 03:45 PM</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UC610-0817</t>
+          <t>UC610-0871</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,12 +579,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:45 AM</t>
+          <t>30 Jan 2026, 03:40 PM</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UC610-0813</t>
+          <t>UC610-0862</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>498</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22 Jan 2026, 11:00 AM</t>
+          <t>30 Jan 2026, 03:32 PM</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UC610-0769</t>
+          <t>UC610-0861</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>636</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20 Jan 2026, 06:49 PM</t>
+          <t>30 Jan 2026, 03:30 PM</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UC610-0769</t>
+          <t>UC610-0859</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>620</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20 Jan 2026, 06:49 PM</t>
+          <t>30 Jan 2026, 03:27 PM</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UC610-0797</t>
+          <t>UC610-0852</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -687,12 +687,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>141</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:43 PM</t>
+          <t>30 Jan 2026, 01:24 PM</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UC610-0791</t>
+          <t>UC610-0846</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15 Jan 2026, 03:40 PM</t>
+          <t>30 Jan 2026, 01:14 PM</t>
         </is>
       </c>
     </row>
@@ -731,20 +731,1154 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>UC610-0845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:09 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UC610-0844</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 01:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC610-0836</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:44 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC610-0834</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:41 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC610-0832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:38 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC610-0829</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:29 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UC610-0827</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:26 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC610-0825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:17 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC610-0824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:15 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC610-0823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30 Jan 2026, 11:11 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC610-0837</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 06:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC610-0858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC610-0847</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28 Jan 2026, 04:31 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC610-0839</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27 Jan 2026, 01:19 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC610-0826</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 12:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC610-0828</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:49 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC610-0822</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:47 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC610-0817</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:45 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC610-0816</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC610-0818</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:13 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC610-0813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC610-0811</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:54 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC610-0810</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22 Jan 2026, 10:50 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC610-0528</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:06 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC610-0833</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 05:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UC610-0819</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UC610-0830</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21 Jan 2026, 02:12 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UC610-0769</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:49 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UC610-0774</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20 Jan 2026, 06:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>UC610-0799</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16 Jan 2026, 10:34 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>UC610-0800</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 07:13 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UC610-0781</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 05:29 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UC610-0797</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:43 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>UC610-0798</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:42 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>UC610-0791</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:40 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UC610-0802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>505.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 03:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UC610-0738</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>UC610-0805</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15 Jan 2026, 01:37 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>UC610-0780</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1753</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 06:55 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UC610-0782</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09 Jan 2026, 01:35 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>UC610-0768</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>08 Jan 2026, 05:11 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>UC610</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>UC610-0759</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UPI / Wallet</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UPI / Wallet</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>1628</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>06 Jan 2026, 01:05 PM</t>
         </is>
